--- a/tests/test_project_economic_index/Documentation/test_project_economic_index_2015_tract_config_2015_tract.xlsx
+++ b/tests/test_project_economic_index/Documentation/test_project_economic_index_2015_tract_config_2015_tract.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QEDLESHI' 'QESL' 'PPUNIT' 'QNOHLTH' 'QHISPC' 'QEXTRCT' 'QMOHO' 'QFHH'
+          <t>['QNOHLTH' 'PPUNIT' 'QESL' 'QEXTRCT' 'QEDLESHI' 'QHISPC' 'QMOHO' 'QFHH'
  'QSERV' 'PERCAP']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['QSERV' 'QPOVTY' 'QNOAUTO' 'QFAM' 'QRENTER']</t>
+          <t>['QSERV' 'QFAM' 'QPOVTY' 'QNOAUTO' 'QRENTER']</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
+          <t>['MDHSEVAL' 'PERCAP' 'QRICH']</t>
         </is>
       </c>
     </row>
@@ -584,133 +584,133 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8706392880460002</v>
+        <v>0.6263130936863051</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3186792089452015</v>
+        <v>0.4327972301412619</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2399421467001341</v>
+        <v>0.3979244745936654</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01580901606639936</v>
+        <v>-0.1579432602753178</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1724758200528725</v>
+        <v>-0.319863133742476</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7855013283054891</v>
+        <v>0.8851302168108971</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3041744393563136</v>
+        <v>-0.3399910927844724</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1767670643311145</v>
+        <v>0.01365074588843858</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.04270476895285173</v>
+        <v>-0.05825895168689116</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3264826509253821</v>
+        <v>0.09024025527309867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8851302158437668</v>
+        <v>0.7855013334499528</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.339991087939602</v>
+        <v>0.3041744381736121</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01365074521412033</v>
+        <v>0.1767670641081439</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05825894977592757</v>
+        <v>-0.04270476993429613</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09024025132889035</v>
+        <v>-0.3264826487935067</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6263130917929136</v>
+        <v>0.8067755604172836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4327972321848807</v>
+        <v>0.1903305359789907</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3979244708967358</v>
+        <v>0.1661525058518147</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1579432603379011</v>
+        <v>0.04474807484527285</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3198631337780791</v>
+        <v>-0.3122038103986232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8141136081076163</v>
+        <v>0.8706392912582296</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2716677283542354</v>
+        <v>0.3186792068586055</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3642901612383267</v>
+        <v>0.2399421487094594</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.09253617741631907</v>
+        <v>-0.015809016956558</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1653622944260341</v>
+        <v>-0.1724758152659148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8067755559200929</v>
+        <v>0.8141136107583671</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1903305376287288</v>
+        <v>0.2716677242507314</v>
       </c>
       <c r="D7" t="n">
-        <v>0.166152505872606</v>
+        <v>0.3642901647255513</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04474807493034866</v>
+        <v>-0.09253617857885574</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3122038133150219</v>
+        <v>-0.1653622915032533</v>
       </c>
     </row>
     <row r="8">
@@ -720,19 +720,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4970030339134019</v>
+        <v>0.4970030322298793</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2455385828953121</v>
+        <v>-0.2455385823402434</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1494853387005683</v>
+        <v>0.1494853375343631</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04459241312196706</v>
+        <v>0.04459241365639557</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1075349233748148</v>
+        <v>-0.1075349214818427</v>
       </c>
     </row>
     <row r="9">
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6749064518724432</v>
+        <v>0.6749064462389948</v>
       </c>
       <c r="C9" t="n">
-        <v>0.254286209091261</v>
+        <v>0.2542862033507599</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3472729545124044</v>
+        <v>0.3472729591745444</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.001819745305926894</v>
+        <v>-0.001819747852391857</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1432075098411929</v>
+        <v>0.143207506930199</v>
       </c>
     </row>
     <row r="10">
@@ -764,41 +764,41 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5388686112073434</v>
+        <v>0.5388686113266307</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4974827924937074</v>
+        <v>0.4974827891329135</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4014625074980452</v>
+        <v>0.4014625123491592</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1598697588301959</v>
+        <v>-0.1598697596507773</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05447649194190562</v>
+        <v>-0.05447649019523378</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QFAM</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3968024433652457</v>
+        <v>0.1778811214058825</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6006453266936025</v>
+        <v>0.5815631784986119</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1681092875529218</v>
+        <v>0.3849081947109767</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3318305839475306</v>
+        <v>-0.1731076065057875</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06504966545641949</v>
+        <v>0.1035379324090373</v>
       </c>
     </row>
     <row r="12">
@@ -808,63 +808,63 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3099260622271011</v>
+        <v>-0.3099260615322429</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4086996541659314</v>
+        <v>-0.4086996488063424</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3043569742418193</v>
+        <v>-0.3043569783194008</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7241961159952932</v>
+        <v>0.7241961242975987</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.07764163950348081</v>
+        <v>-0.07764163879428379</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>QNOAUTO</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09093155972608612</v>
+        <v>0.3968024443777325</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7648710030538914</v>
+        <v>0.600645326822438</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09962773732588479</v>
+        <v>0.1681092907949483</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.05315791857914012</v>
+        <v>-0.3318305861361306</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.06117092260857872</v>
+        <v>0.06504966820433947</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QFAM</t>
+          <t>QNOAUTO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1778811214896382</v>
+        <v>0.09093156089933711</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5815631873517333</v>
+        <v>0.7648710117425919</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3849081907450856</v>
+        <v>0.0996277381953887</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1731076048967643</v>
+        <v>-0.0531579160753595</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1035379354251761</v>
+        <v>-0.06117092056960545</v>
       </c>
     </row>
     <row r="15">
@@ -874,85 +874,85 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1632056563209382</v>
+        <v>-0.1632056566767909</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7607461508901866</v>
+        <v>0.7607461522703722</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2345846527990523</v>
+        <v>0.234584655919179</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.4235903159569803</v>
+        <v>-0.4235903183426108</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1110407753624875</v>
+        <v>-0.1110407776250559</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5023982887088547</v>
+        <v>0.4096159818816736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2921732336372373</v>
+        <v>0.08325301520773763</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7148192812861381</v>
+        <v>0.8485279032680391</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2321203864050249</v>
+        <v>-0.09718945442890399</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05814365020155633</v>
+        <v>-0.03829387242930901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1917528741186563</v>
+        <v>0.5023982865575057</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3385926177516266</v>
+        <v>0.2921732271852683</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8705536498736658</v>
+        <v>0.7148192898572289</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1683559123623526</v>
+        <v>-0.2321203866265094</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.008364651437641939</v>
+        <v>0.05814365040195318</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4096159837791907</v>
+        <v>0.1917528712169663</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08325301988153916</v>
+        <v>0.3385926120873091</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8485279028230301</v>
+        <v>0.8705536562459453</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.09718945505003132</v>
+        <v>-0.1683559113213439</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0382938711348489</v>
+        <v>-0.008364653918244645</v>
       </c>
     </row>
     <row r="19">
@@ -962,19 +962,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01491986517187645</v>
+        <v>-0.01491986627725848</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1159626058469751</v>
+        <v>-0.1159626092410584</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1493008454334671</v>
+        <v>-0.1493008465174241</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7835160043376488</v>
+        <v>0.7835159865576261</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4917123057195594</v>
+        <v>0.4917123043407212</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09098682420653562</v>
+        <v>0.0909868254803667</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1614997035376656</v>
+        <v>-0.1614996969491035</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.05213702431938848</v>
+        <v>-0.05213702366782458</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8603331166301086</v>
+        <v>0.8603331328377707</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02790073970053212</v>
+        <v>0.02790074346695427</v>
       </c>
     </row>
     <row r="21">
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.3532640125127156</v>
+        <v>-0.3532640162798462</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04140821238793466</v>
+        <v>0.0414082118873416</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1982786616430848</v>
+        <v>0.1982786644952222</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.06998996700950623</v>
+        <v>-0.06998996693151409</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7164385688148256</v>
+        <v>0.7164385671812702</v>
       </c>
     </row>
     <row r="22">
@@ -1028,19 +1028,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.07962727667057194</v>
+        <v>-0.07962727639585064</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.02783059901973734</v>
+        <v>-0.0278305979188282</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.09807423108515524</v>
+        <v>-0.09807423200237887</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2227085731897326</v>
+        <v>0.2227085694201975</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7902432970026012</v>
+        <v>0.7902433088973493</v>
       </c>
     </row>
   </sheetData>
@@ -1177,34 +1177,34 @@
         <v>1.263229220511054</v>
       </c>
       <c r="I2" t="n">
-        <v>5.007637426436025</v>
+        <v>5.007637456277104</v>
       </c>
       <c r="J2" t="n">
-        <v>4.081828579015653</v>
+        <v>4.081828567808917</v>
       </c>
       <c r="K2" t="n">
-        <v>3.34649090968978</v>
+        <v>3.346490933579805</v>
       </c>
       <c r="L2" t="n">
-        <v>2.45220969586192</v>
+        <v>2.452209701023567</v>
       </c>
       <c r="M2" t="n">
-        <v>2.063300320545445</v>
+        <v>2.063300321511267</v>
       </c>
       <c r="N2" t="n">
-        <v>5.773954874768893</v>
+        <v>5.773954893677692</v>
       </c>
       <c r="O2" t="n">
-        <v>3.258202981817381</v>
+        <v>3.258202962940072</v>
       </c>
       <c r="P2" t="n">
-        <v>3.108555268611623</v>
+        <v>3.108555315708456</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.415559065587636</v>
+        <v>2.415559080186509</v>
       </c>
       <c r="R2" t="n">
-        <v>1.828947234461695</v>
+        <v>1.828947243241392</v>
       </c>
     </row>
     <row r="3">
@@ -1235,34 +1235,34 @@
         <v>0.04678626742633533</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2177233663667837</v>
+        <v>0.2177233676642219</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1774708077832892</v>
+        <v>0.1774708072960399</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1454996047691209</v>
+        <v>0.1454996058078176</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1066178128635618</v>
+        <v>0.1066178130879812</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08970870958893239</v>
+        <v>0.08970870963092464</v>
       </c>
       <c r="N3" t="n">
-        <v>0.274950232131852</v>
+        <v>0.274950233032271</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1551525229436848</v>
+        <v>0.1551525220447653</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1480264413624582</v>
+        <v>0.1480264436051646</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1150266221708398</v>
+        <v>0.1150266228660243</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08709272545055689</v>
+        <v>0.0870927258686377</v>
       </c>
     </row>
     <row r="4">
@@ -1293,34 +1293,34 @@
         <v>0.7120239532290363</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2177233663667837</v>
+        <v>0.2177233676642219</v>
       </c>
       <c r="J4" t="n">
-        <v>0.395194174150073</v>
+        <v>0.3951941749602618</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5406937789191938</v>
+        <v>0.5406937807680794</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6473115917827555</v>
+        <v>0.6473115938560605</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7370203013716879</v>
+        <v>0.7370203034869851</v>
       </c>
       <c r="N4" t="n">
-        <v>0.274950232131852</v>
+        <v>0.274950233032271</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4301027550755369</v>
+        <v>0.4301027550770363</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5781291964379951</v>
+        <v>0.5781291986822009</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6931558186088349</v>
+        <v>0.6931558215482252</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7802485440593918</v>
+        <v>0.7802485474168629</v>
       </c>
     </row>
     <row r="5">
@@ -1351,34 +1351,34 @@
         <v>0.06570883916778235</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2954102701941493</v>
+        <v>0.2954102711066855</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2407950058539685</v>
+        <v>0.2407950045017637</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1974160067210194</v>
+        <v>0.1974160075637414</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1446606187986037</v>
+        <v>0.1446606186879137</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1217180984322591</v>
+        <v>0.1217180981398958</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3523880104939011</v>
+        <v>0.3523880101315633</v>
       </c>
       <c r="O5" t="n">
-        <v>0.198850128109787</v>
+        <v>0.1988501261020254</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1897170363078442</v>
+        <v>0.1897170383658255</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1474230526242213</v>
+        <v>0.1474230528808265</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1116217724642463</v>
+        <v>0.1116217725197593</v>
       </c>
     </row>
   </sheetData>
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.773954874768893</v>
+        <v>5.773954893677692</v>
       </c>
       <c r="C2" t="n">
-        <v>3.258202981817381</v>
+        <v>3.258202962940072</v>
       </c>
       <c r="D2" t="n">
-        <v>3.108555268611623</v>
+        <v>3.108555315708456</v>
       </c>
       <c r="E2" t="n">
-        <v>2.415559065587636</v>
+        <v>2.415559080186509</v>
       </c>
       <c r="F2" t="n">
-        <v>1.828947234461695</v>
+        <v>1.828947243241392</v>
       </c>
     </row>
     <row r="3">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.274950232131852</v>
+        <v>0.274950233032271</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1551525229436848</v>
+        <v>0.1551525220447653</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1480264413624582</v>
+        <v>0.1480264436051646</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1150266221708398</v>
+        <v>0.1150266228660243</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08709272545055689</v>
+        <v>0.0870927258686377</v>
       </c>
     </row>
     <row r="4">
@@ -1478,19 +1478,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.274950232131852</v>
+        <v>0.274950233032271</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4301027550755369</v>
+        <v>0.4301027550770363</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5781291964379951</v>
+        <v>0.5781291986822009</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6931558186088349</v>
+        <v>0.6931558215482252</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7802485440593918</v>
+        <v>0.7802485474168629</v>
       </c>
     </row>
     <row r="5">
@@ -1500,19 +1500,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3523880104939011</v>
+        <v>0.3523880101315633</v>
       </c>
       <c r="C5" t="n">
-        <v>0.198850128109787</v>
+        <v>0.1988501261020254</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1897170363078442</v>
+        <v>0.1897170383658255</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1474230526242213</v>
+        <v>0.1474230528808265</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1116217724642463</v>
+        <v>0.1116217725197593</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QEDLESHI', 'QESL', 'PPUNIT', 'QNOHLTH', 'QHISPC', 'QEXTRCT', 'QMOHO', 'QFHH', 'QSERV', 'PERCAP', 'QPOVTY', 'QNOAUTO', 'QFAM', 'QRENTER', 'QRICH', 'MDHSEVAL', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMLBR', 'QFEMALE']]</t>
+          <t>[['QNOHLTH', 'PPUNIT', 'QESL', 'QEXTRCT', 'QEDLESHI', 'QHISPC', 'QMOHO', 'QFHH', 'QSERV', 'PERCAP', 'QFAM', 'QPOVTY', 'QNOAUTO', 'QRENTER', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMLBR', 'QFEMALE']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/tests/test_project_economic_index/Documentation/test_project_economic_index_2015_tract_config_2015_tract.xlsx
+++ b/tests/test_project_economic_index/Documentation/test_project_economic_index_2015_tract_config_2015_tract.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QEXTRCT' 'QEDLESHI' 'QNOHLTH' 'QHISPC' 'QESL' 'PPUNIT' 'QMOHO' 'QFHH'
+          <t>['QHISPC' 'QEDLESHI' 'PPUNIT' 'QNOHLTH' 'QEXTRCT' 'QESL' 'QMOHO' 'QFHH'
  'QSERV' 'PERCAP']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['QSERV' 'QPOVTY' 'QNOAUTO' 'QFAM' 'QRENTER']</t>
+          <t>['QSERV' 'QNOAUTO' 'QPOVTY' 'QFAM' 'QRENTER']</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['MDHSEVAL' 'QRICH' 'PERCAP']</t>
+          <t>['QRICH' 'PERCAP' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
+          <t>['MEDAGE' 'QSSBEN' 'QAGEDEP']</t>
         </is>
       </c>
     </row>
@@ -584,23 +584,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8067755578859354</v>
+        <v>0.8141136130491264</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1903305348564833</v>
+        <v>0.2716677211753237</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1661525053894707</v>
+        <v>0.3642901654167136</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04474807360196376</v>
+        <v>-0.09253617844960219</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3122038078920306</v>
+        <v>-0.1653622894981248</v>
       </c>
     </row>
     <row r="3">
@@ -610,107 +610,107 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8706392938616867</v>
+        <v>0.8706392944756202</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3186792070571314</v>
+        <v>0.3186792040795077</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2399421450219848</v>
+        <v>0.2399421485129545</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01580901637719193</v>
+        <v>-0.01580901668236366</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.172475815091179</v>
+        <v>-0.1724758134066303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6263130948669177</v>
+        <v>0.8851302203144631</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4327972289559296</v>
+        <v>-0.3399911013888788</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3979244699244576</v>
+        <v>0.01365074380800354</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1579432615879554</v>
+        <v>-0.05825895524760769</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3198631288760153</v>
+        <v>0.09024025901110198</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8141136148600794</v>
+        <v>0.6263130964324871</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2716677248564224</v>
+        <v>0.4327972278181939</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3642901618403317</v>
+        <v>0.3979244747859013</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.09253617824422593</v>
+        <v>-0.1579432608080629</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1653622907495036</v>
+        <v>-0.3198631302723718</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7855013341410492</v>
+        <v>0.8067755622727699</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3041744378070106</v>
+        <v>0.1903305337446277</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1767670616577528</v>
+        <v>0.1661525058560853</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0427047697720191</v>
+        <v>0.0447480753054975</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3264826473841091</v>
+        <v>-0.3122038087550698</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8851302163624676</v>
+        <v>0.7855013338849578</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3399910957322893</v>
+        <v>0.3041744346397369</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01365074580020507</v>
+        <v>0.1767670655927464</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0582589531758262</v>
+        <v>-0.04270477062179979</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09024025542865942</v>
+        <v>-0.3264826446667224</v>
       </c>
     </row>
     <row r="8">
@@ -720,19 +720,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4970030300388727</v>
+        <v>0.4970030306382288</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2455385796198847</v>
+        <v>-0.2455385835030821</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1494853369059725</v>
+        <v>0.1494853376845259</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04459241392388324</v>
+        <v>0.04459241427751529</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1075349214962954</v>
+        <v>-0.1075349214387106</v>
       </c>
     </row>
     <row r="9">
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6749064498718452</v>
+        <v>0.6749064482951685</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2542862038894801</v>
+        <v>0.2542861997341845</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3472729570891057</v>
+        <v>0.3472729606996489</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.001819747213817862</v>
+        <v>-0.001819747548469157</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1432075103719356</v>
+        <v>0.1432075089303213</v>
       </c>
     </row>
     <row r="10">
@@ -764,107 +764,107 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.538868614071117</v>
+        <v>0.5388686132323599</v>
       </c>
       <c r="C10" t="n">
-        <v>0.497482791271161</v>
+        <v>0.4974827848514192</v>
       </c>
       <c r="D10" t="n">
-        <v>0.401462509090337</v>
+        <v>0.4014625130289369</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1598697594099411</v>
+        <v>-0.159869760619532</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05447648877530494</v>
+        <v>-0.05447648843686514</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QNOAUTO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.396802443962384</v>
+        <v>0.09093156458246723</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6006453224522627</v>
+        <v>0.764871016742003</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1681092910625578</v>
+        <v>0.09962773640009613</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3318305846392779</v>
+        <v>-0.05315791474898277</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06504966662238343</v>
+        <v>-0.06117091965254245</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>QNOAUTO</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09093156300610654</v>
+        <v>0.3968024463797546</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7648710079250337</v>
+        <v>0.6006453222248229</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09962773640395975</v>
+        <v>0.1681092930449398</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0531579170330964</v>
+        <v>-0.3318305856638935</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06117092051318141</v>
+        <v>0.06504966883800457</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QFAM</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.3099260620050945</v>
+        <v>0.1778811237185253</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.4086996503456805</v>
+        <v>0.5815631766697399</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3043569766603232</v>
+        <v>0.3849081961358294</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7241961195803801</v>
+        <v>-0.1731076071232772</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07764163965204501</v>
+        <v>0.1035379333962858</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QFAM</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1778811226791527</v>
+        <v>-0.3099260628049342</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5815631836279918</v>
+        <v>-0.4086996480427055</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3849081930115292</v>
+        <v>-0.304356979237924</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1731076056071805</v>
+        <v>0.7241961202309565</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1035379350383578</v>
+        <v>-0.07764164065823917</v>
       </c>
     </row>
     <row r="15">
@@ -874,129 +874,129 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1632056557598896</v>
+        <v>-0.1632056538569688</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7607461586808211</v>
+        <v>0.7607461576744062</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2345846519971153</v>
+        <v>0.2345846551990565</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.423590318121872</v>
+        <v>-0.4235903191819195</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1110407758673007</v>
+        <v>-0.1110407748071569</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4096159832079599</v>
+        <v>0.1917528734742953</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08325301647408836</v>
+        <v>0.3385926115220159</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8485279045431724</v>
+        <v>0.8705536535158772</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.09718945444171648</v>
+        <v>-0.1683559114900926</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.03829387200013438</v>
+        <v>-0.008364652464530827</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1917528731574746</v>
+        <v>0.5023982871552117</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3385926147774591</v>
+        <v>0.2921732255221788</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8705536558078527</v>
+        <v>0.7148192873648012</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1683559110166171</v>
+        <v>-0.2321203859746318</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.008364652977664177</v>
+        <v>0.05814365048628865</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5023982882781272</v>
+        <v>0.4096159800181219</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2921732295294813</v>
+        <v>0.0832530102819159</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7148192837127436</v>
+        <v>0.8485279119142267</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2321203867250956</v>
+        <v>-0.0971894527449492</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05814365034079696</v>
+        <v>-0.03829387304933273</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>QSSBEN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0149198671884541</v>
+        <v>0.09098682380710474</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1159626077253069</v>
+        <v>-0.1614996989932077</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.149300845249689</v>
+        <v>-0.05213702330375172</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7835159966112532</v>
+        <v>0.8603331300556645</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4917123056710757</v>
+        <v>0.02790073922177933</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>QSSBEN</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09098682449115227</v>
+        <v>-0.01491986705494342</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1614997006444632</v>
+        <v>-0.115962605053361</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.05213702363477485</v>
+        <v>-0.1493008462003355</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8603331252667625</v>
+        <v>0.7835160008935196</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02790074055712573</v>
+        <v>0.4917123066989327</v>
       </c>
     </row>
     <row r="21">
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.3532640164610198</v>
+        <v>-0.3532640186949146</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04140821175770596</v>
+        <v>0.04140821067787412</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1982786640450859</v>
+        <v>0.1982786674921743</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.06998996659504589</v>
+        <v>-0.06998996828784822</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7164385620157088</v>
+        <v>0.7164385710817847</v>
       </c>
     </row>
     <row r="22">
@@ -1028,19 +1028,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.07962727669148706</v>
+        <v>-0.07962727571529978</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.02783059809952518</v>
+        <v>-0.02783059688779874</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.09807423276934901</v>
+        <v>-0.09807423425314189</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2227085704868645</v>
+        <v>0.2227085711208232</v>
       </c>
       <c r="F22" t="n">
-        <v>0.790243314632896</v>
+        <v>0.7902433191634705</v>
       </c>
     </row>
   </sheetData>
@@ -1156,55 +1156,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.4689072749492</v>
+        <v>4.468907261255187</v>
       </c>
       <c r="C2" t="n">
-        <v>4.069477110095309</v>
+        <v>4.069477164026535</v>
       </c>
       <c r="D2" t="n">
-        <v>3.855906758116381</v>
+        <v>3.855906699537869</v>
       </c>
       <c r="E2" t="n">
-        <v>2.433004768702047</v>
+        <v>2.433004759777368</v>
       </c>
       <c r="F2" t="n">
-        <v>1.601044501010479</v>
+        <v>1.601044487272083</v>
       </c>
       <c r="G2" t="n">
-        <v>1.533077103799509</v>
+        <v>1.533077102151489</v>
       </c>
       <c r="H2" t="n">
-        <v>1.263229220511054</v>
+        <v>1.263229239219237</v>
       </c>
       <c r="I2" t="n">
-        <v>5.007637516077379</v>
+        <v>5.007637443030214</v>
       </c>
       <c r="J2" t="n">
-        <v>4.081828518650061</v>
+        <v>4.081828556509913</v>
       </c>
       <c r="K2" t="n">
-        <v>3.346490901468765</v>
+        <v>3.346490956449203</v>
       </c>
       <c r="L2" t="n">
-        <v>2.452209700027711</v>
+        <v>2.45220970833814</v>
       </c>
       <c r="M2" t="n">
-        <v>2.063300300951232</v>
+        <v>2.063300325610768</v>
       </c>
       <c r="N2" t="n">
-        <v>5.773954912341655</v>
+        <v>5.773954923782728</v>
       </c>
       <c r="O2" t="n">
-        <v>3.258202974921268</v>
+        <v>3.258202959761449</v>
       </c>
       <c r="P2" t="n">
-        <v>3.108555290627058</v>
+        <v>3.108555327960804</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.41555907539255</v>
+        <v>2.415559093833296</v>
       </c>
       <c r="R2" t="n">
-        <v>1.82894724102359</v>
+        <v>1.82894726081067</v>
       </c>
     </row>
     <row r="3">
@@ -1214,55 +1214,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1655150842573778</v>
+        <v>0.1655150837501921</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1507213744479744</v>
+        <v>0.1507213764454272</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1428113614117178</v>
+        <v>0.1428113592421433</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09011128772970546</v>
+        <v>0.09011128739916179</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05929794448186961</v>
+        <v>0.05929794397304011</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0567806334740559</v>
+        <v>0.05678063341301812</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04678626742633533</v>
+        <v>0.04678626811923099</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2177233702642339</v>
+        <v>0.2177233670882702</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1774708051586983</v>
+        <v>0.1774708068047788</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1454996044116854</v>
+        <v>0.1454996068021392</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1066178130446831</v>
+        <v>0.1066178134060061</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0897087087370101</v>
+        <v>0.08970870980916383</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2749502339210312</v>
+        <v>0.2749502344658442</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1551525226152985</v>
+        <v>0.1551525218934023</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1480264424108123</v>
+        <v>0.1480264441886097</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1150266226377405</v>
+        <v>0.1150266235158712</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08709272576302809</v>
+        <v>0.08709272670527002</v>
       </c>
     </row>
     <row r="4">
@@ -1272,55 +1272,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1655150842573778</v>
+        <v>0.1655150837501921</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3162364587053522</v>
+        <v>0.3162364601956194</v>
       </c>
       <c r="D4" t="n">
-        <v>0.45904782011707</v>
+        <v>0.4590478194377626</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5491591078467755</v>
+        <v>0.5491591068369244</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6084570523286451</v>
+        <v>0.6084570508099645</v>
       </c>
       <c r="G4" t="n">
-        <v>0.665237685802701</v>
+        <v>0.6652376842229826</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7120239532290363</v>
+        <v>0.7120239523422136</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2177233702642339</v>
+        <v>0.2177233670882702</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3951941754229322</v>
+        <v>0.395194173893049</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5406937798346176</v>
+        <v>0.5406937806951883</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6473115928793007</v>
+        <v>0.6473115941011943</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7370203016163108</v>
+        <v>0.7370203039103581</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2749502339210312</v>
+        <v>0.2749502344658442</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4301027565363297</v>
+        <v>0.4301027563592466</v>
       </c>
       <c r="P4" t="n">
-        <v>0.578129198947142</v>
+        <v>0.5781292005478562</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6931558215848825</v>
+        <v>0.6931558240637274</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7802485473479106</v>
+        <v>0.7802485507689975</v>
       </c>
     </row>
     <row r="5">
@@ -1330,55 +1330,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2324571856140023</v>
+        <v>0.2324571851912112</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2116802022803465</v>
+        <v>0.2116802053493102</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2005710071466932</v>
+        <v>0.2005710043494509</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1265565397358471</v>
+        <v>0.1265565394292416</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08328082814202077</v>
+        <v>0.08328082753112254</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0797453979133077</v>
+        <v>0.07974539792690591</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06570883916778235</v>
+        <v>0.06570884022275773</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2954102753842181</v>
+        <v>0.2954102701555306</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2407950022129631</v>
+        <v>0.2407950036968916</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1974160061705218</v>
+        <v>0.1974160087994482</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1446606189963378</v>
+        <v>0.1446606190363159</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1217180972359592</v>
+        <v>0.1217180983118138</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3523880113017777</v>
+        <v>0.3523880104549489</v>
       </c>
       <c r="O5" t="n">
-        <v>0.198850126850818</v>
+        <v>0.1988501250537243</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1897170368518581</v>
+        <v>0.189717038298524</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1474230526012764</v>
+        <v>0.1474230530803335</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1116217723942698</v>
+        <v>0.1116217731124693</v>
       </c>
     </row>
   </sheetData>
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.773954912341655</v>
+        <v>5.773954923782728</v>
       </c>
       <c r="C2" t="n">
-        <v>3.258202974921268</v>
+        <v>3.258202959761449</v>
       </c>
       <c r="D2" t="n">
-        <v>3.108555290627058</v>
+        <v>3.108555327960804</v>
       </c>
       <c r="E2" t="n">
-        <v>2.41555907539255</v>
+        <v>2.415559093833296</v>
       </c>
       <c r="F2" t="n">
-        <v>1.82894724102359</v>
+        <v>1.82894726081067</v>
       </c>
     </row>
     <row r="3">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2749502339210312</v>
+        <v>0.2749502344658442</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1551525226152985</v>
+        <v>0.1551525218934023</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1480264424108123</v>
+        <v>0.1480264441886097</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1150266226377405</v>
+        <v>0.1150266235158712</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08709272576302809</v>
+        <v>0.08709272670527002</v>
       </c>
     </row>
     <row r="4">
@@ -1478,19 +1478,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2749502339210312</v>
+        <v>0.2749502344658442</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4301027565363297</v>
+        <v>0.4301027563592466</v>
       </c>
       <c r="D4" t="n">
-        <v>0.578129198947142</v>
+        <v>0.5781292005478562</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6931558215848825</v>
+        <v>0.6931558240637274</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7802485473479106</v>
+        <v>0.7802485507689975</v>
       </c>
     </row>
     <row r="5">
@@ -1500,19 +1500,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3523880113017777</v>
+        <v>0.3523880104549489</v>
       </c>
       <c r="C5" t="n">
-        <v>0.198850126850818</v>
+        <v>0.1988501250537243</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1897170368518581</v>
+        <v>0.189717038298524</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1474230526012764</v>
+        <v>0.1474230530803335</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1116217723942698</v>
+        <v>0.1116217731124693</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QEXTRCT', 'QEDLESHI', 'QNOHLTH', 'QHISPC', 'QESL', 'PPUNIT', 'QMOHO', 'QFHH', 'QSERV', 'PERCAP', 'QPOVTY', 'QNOAUTO', 'QFAM', 'QRENTER', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMLBR', 'QFEMALE']]</t>
+          <t>[['QHISPC', 'QEDLESHI', 'PPUNIT', 'QNOHLTH', 'QEXTRCT', 'QESL', 'QMOHO', 'QFHH', 'QSERV', 'PERCAP', 'QNOAUTO', 'QPOVTY', 'QFAM', 'QRENTER', 'QRICH', 'MDHSEVAL', 'MEDAGE', 'QSSBEN', 'QAGEDEP', 'QFEMLBR', 'QFEMALE']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
